--- a/mobile/src/main/resources/TestData/allAPI_StatusCheck/allAPI_StatusCheck_TestData.xlsx
+++ b/mobile/src/main/resources/TestData/allAPI_StatusCheck/allAPI_StatusCheck_TestData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="349">
   <si>
     <t>S.NO</t>
   </si>
@@ -1400,9 +1400,9 @@
   </si>
   <si>
     <t>{
-"shiftDateTo" : "20-03-2019",
+"shiftDateTo" : "",
 "token" : "N.A.",
-"shiftDate" : "20-03-2019",
+"shiftDate" : "",
 "edit_reason_id" : "5b6f61c58e838",
 "mongo_id" : "N.A.",
 "clockInTime" : "9:00",
@@ -1416,6 +1416,25 @@
 "message" : "In",
 "allow_attrequest_holiday" : 0
 }</t>
+  </si>
+  <si>
+    <t>{
+"halfDay" : 0,
+"other" : 0,
+"ccIDs" : [
+],
+"Message" : "i have personal work",
+"token": "N.A.",
+"leaveType" : "5c9358fc7f05f",
+"from" : "",
+"to" : "",
+"recipientsIDs" : [
+162264
+]
+}</t>
+  </si>
+  <si>
+    <t>To verify user able to apply optional holiday</t>
   </si>
 </sst>
 </file>
@@ -4620,8 +4639,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4636,7 +4655,9 @@
     <col min="9" max="9" width="9.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.140625" style="43" customWidth="1"/>
     <col min="11" max="11" width="12" style="43" customWidth="1"/>
-    <col min="12" max="16" width="9.140625" style="43"/>
+    <col min="12" max="14" width="9.140625" style="43"/>
+    <col min="15" max="15" width="39.85546875" style="43" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="43"/>
     <col min="17" max="17" width="39.42578125" style="43" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="43"/>
   </cols>
@@ -5789,7 +5810,7 @@
         <v>92</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="H23" s="25" t="s">
         <v>17</v>
@@ -5838,7 +5859,7 @@
         <v>97</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>98</v>
+        <v>348</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>309</v>
@@ -6227,7 +6248,7 @@
       <c r="U31" s="56"/>
       <c r="V31" s="56"/>
     </row>
-    <row r="32" spans="1:22" ht="409.6">
+    <row r="32" spans="1:22" ht="217.5">
       <c r="A32" s="44">
         <v>31</v>
       </c>
@@ -6295,7 +6316,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="409.6">
+    <row r="33" spans="1:22" ht="217.5">
       <c r="A33" s="44">
         <v>32</v>
       </c>
@@ -6361,7 +6382,7 @@
       </c>
       <c r="V33" s="4"/>
     </row>
-    <row r="34" spans="1:22" ht="409.6">
+    <row r="34" spans="1:22" ht="217.5">
       <c r="A34" s="44">
         <v>33</v>
       </c>
@@ -6427,7 +6448,7 @@
       </c>
       <c r="V34" s="4"/>
     </row>
-    <row r="35" spans="1:22" ht="383.25">
+    <row r="35" spans="1:22" ht="192">
       <c r="A35" s="44">
         <v>34</v>
       </c>
@@ -6493,7 +6514,7 @@
       </c>
       <c r="V35" s="4"/>
     </row>
-    <row r="36" spans="1:22" ht="383.25">
+    <row r="36" spans="1:22" ht="192">
       <c r="A36" s="44">
         <v>35</v>
       </c>
@@ -6559,7 +6580,7 @@
       </c>
       <c r="V36" s="4"/>
     </row>
-    <row r="37" spans="1:22" ht="383.25">
+    <row r="37" spans="1:22" ht="192">
       <c r="A37" s="44">
         <v>36</v>
       </c>
